--- a/등기부OCR/dist/등기부등본.xlsx
+++ b/등기부OCR/dist/등기부등본.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -469,7 +469,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1동</t>
+          <t>2동</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -479,17 +479,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>이정엽 46</t>
+          <t>('조소영', '83')</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">경상남도 진주시 상대로 101,  1동 101호 (하대동,상대아파트) </t>
+          <t xml:space="preserve">경상남도 진주시 촉석로180번길 7-4 (중안동) </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">41.52㎡ </t>
+          <t xml:space="preserve">40.99㎡ </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,7 +501,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1동</t>
+          <t>2동</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -511,17 +511,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>유정애 58</t>
+          <t>('정연옥', '72')</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">울산광역시 남구 대암로 51, 401동 1709호 </t>
+          <t xml:space="preserve">진주시 하대동 321-36, 203호 </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">41.52㎡ </t>
+          <t xml:space="preserve">40.99㎡ </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -533,7 +533,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1동</t>
+          <t>2동</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>이정욱 69</t>
+          <t>('이희신', '73')</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>진주시 하대동 72 주공아파트 1동 103호</t>
+          <t xml:space="preserve">전라남도 순천시 장승길 27, 105동 401호(조례동,조례영무예다음아파트) </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">41.52㎡ </t>
+          <t xml:space="preserve">40.99㎡ </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -565,7 +565,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1동</t>
+          <t>2동</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -575,17 +575,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>신상임 34</t>
+          <t>('장태원', '94')</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">진주시 하대동 72 주공아파트 1동 104호 </t>
+          <t xml:space="preserve">서울특별시 서대문구 송죽길  34-37 (홍제동) </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">41.52㎡ </t>
+          <t xml:space="preserve">40.99㎡ </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1동</t>
+          <t>2동</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -607,17 +607,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>윤소희 73</t>
+          <t>('강도영', '67')</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">경상남도 진주시 창렬로19번길 14-4 </t>
+          <t xml:space="preserve">경상남도 진주시 진양호로 55(판문동) </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">41.52㎡ </t>
+          <t xml:space="preserve">40.99㎡ </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -629,7 +629,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1동</t>
+          <t>2동</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>황진희 79</t>
+          <t>('조명선', '76')</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">부산광역시 사하구 승학로71번길 60, 104동 503호 (당리동,부영벽산블루밍) </t>
+          <t xml:space="preserve">경상남도 진주시 망경로 234-5, 103동 1804호(망경동,한보아파트) </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">41.52㎡ </t>
+          <t xml:space="preserve">40.99㎡ </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -661,7 +661,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1동</t>
+          <t>2동</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -671,17 +671,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>함행복 62</t>
+          <t>('조도석', '52')</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">광주광역시 서구 구성로19번길 19-9(양동) </t>
+          <t xml:space="preserve">진주시 하대동 72 주공아파트 2동 107호 </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">41.52㎡ </t>
+          <t xml:space="preserve">40.99㎡ </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1동</t>
+          <t>2동</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>한주성 73</t>
+          <t>('박인', '61')</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">진주시 상대동 72 주공아파트 1동 108호 </t>
+          <t>진주시 신안동 705-1 신안3차주공아파트 312-902</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">41.52㎡ </t>
+          <t xml:space="preserve">40.99㎡ </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -725,27 +725,28 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1동</t>
+          <t>2동</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>201</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>이충규 71</t>
+          <t>김동관 69 정선영 73</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>경상남도 사천시 곤양면 서정리  1032</t>
+          <t xml:space="preserve">경상남도 진주시 진주대로1208번길 20, 1동 
+</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">41.52㎡ </t>
+          <t xml:space="preserve">40.99㎡ </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -757,30 +758,992 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1동</t>
+          <t>2동</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>202</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>정상현 57</t>
+          <t>('최성희', '75')</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">진주시 하대동 72주공아파트 1동 110호 </t>
+          <t xml:space="preserve">경상남도 진주시 상대로 101, 2동  202호(하대동,상대아파트) </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">41.52㎡ </t>
+          <t xml:space="preserve">40.99㎡ </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
+        <is>
+          <t>243992분의473</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2동</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>('심태준', '77')</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">경기도 파주시 금촌동 1019 서원마을 702-1305 </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40.99㎡ </t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>243992분의473</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2동</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>('박현철', '61')</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">고성군 고성읍 수남리 77 </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40.99㎡ </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>243992분의473</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2동</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>('조휴옥', '49')</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>진주시 상평동 254-3</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40.99㎡ </t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>243992분의473</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2동</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>('주성훈', '66')</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>경상남도 진주시 석갑로 45,106동 703호(평거동,들말흥한타운)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40.99㎡ </t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>243992분의473</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2동</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>('유은정', '86')</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">부산광역시 서구 보수대로289번길 24-1(서대신동3가) </t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40.99㎡ </t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>243992분의473</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2동</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>('최진선', '36')</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진주시 하대동 72 주공아파트 2동 208호 </t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40.99㎡ </t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>243992분의473</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2동</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>('유경자', '69')</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">경상남도 진주시 선학산길17번길 11(상대동) </t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40.99㎡ </t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>243992분의473</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2동</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>('화숙자', '51')</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진양군 금곡면 정자리 1208-1 </t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40.99㎡ </t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>243992분의473</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2동</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>('하병용', '83')</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">부산광역시 금정구 동부곡로15번길 76. 103동 305호 (부곡동,부곡 롯데캐슬 디아망) </t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40.99㎡ </t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>243992분의473</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2동</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>('김석진', '48')</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진주시 하대동 72 주공아파트 9동 206호 </t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40.99㎡ </t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>243992분의473</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2동</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>('손유정', '72')</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">하동군 악양면 정서리 242 </t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40.99㎡ </t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>243992분의473</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2동</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>('이삼식', '63')</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진주시 상대동 382-5 </t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40.99㎡ </t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>243992분의473</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2동</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>('이윤순', '38')</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">경상남도 함안군 가야읍 가야15길 26, 102동 1203호 (남경타운) </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40.99㎡ </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>243992분의473</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2동</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>('설현미', '66')</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>경상남도 진주시 상대로 101,  2동 308호 (하대동,상대아파트)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40.99㎡ </t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>243992분의473</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2동</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>('정국화', '28')</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진주시 하대동 72 주공아파트 2동 401호 </t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40.99㎡ </t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>243992분의473</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2동</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>('김희점', '58')</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">경상남도 진주시 소호로 39, 114동 402호 (충무공동,한림 풀에버) </t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40.99㎡ </t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>243992분의473</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2동</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>('이은영', '79')</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>서울특별시 관악구 인헌12가길 36, 501호 (봉천동)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40.99㎡ </t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>243992분의473</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2동</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>('이영숙', '59')</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진주시 남성동 281-18 </t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40.99㎡ </t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>243992분의473</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2동</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>('김수진', '72')</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">경상남도 진주시 천수로112번길 5-2 (주약동) </t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40.99㎡ </t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>243992분의473</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2동</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>('아서빈', '66')</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">부산광역시 해운대구 해운대로 732, 101동 301호(중동, 해운대 경남아너스빌) </t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40.99㎡ </t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>243992분의473</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2동</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>('김숙자', '58')</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">경상남도 진주시 금산면 금산순환로80번길 16, 103동 1602호 (금산이-편한세상) </t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40.99㎡ </t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>243992분의473</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2동</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>안승환 76 안주희 80</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">서울특별시 서초구 태봉로2길 60, 311동 
+</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40.99㎡ </t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>243992분의473</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2동</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>조규상 65 이숙자 63</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">마산시 월영동 593-2 화인아트빌라 106-809 
+</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40.99㎡ </t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>243992분의473</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2동</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>('주식회사피앤', '20')</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">광주광역시 서구 상무중앙로 114, 지하1층 비109호 (치평동,랜드피아오피스텔) </t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40.99㎡ </t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>243992분의473</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2동</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>('조보경', '97')</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">경상남도 진주시 남강로17번길 5-4, 201호 (평거동) </t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40.99㎡ </t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>243992분의473</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2동</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>504</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>('이일남', '30')</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">경상남도 진주시 비봉로33번길 6, 401호 (중안동,아이빌) </t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40.99㎡ </t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>243992분의473</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2동</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>('문수상', '51')</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진주시 상대동 72 주공아파트 2동 505호 </t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40.99㎡ </t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>243992분의473</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2동</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>('류창국', '76')</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">경상남도 거제시 장평2로2길 31, 401호(장평동) </t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40.99㎡ </t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>243992분의473</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2동</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>('조우철', '77')</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진주시 상평동 220-3 </t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40.99㎡ </t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>243992분의473</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2동</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>('김성국', '74')</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진주시 집현면 정수리 306 </t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40.99㎡ </t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
         <is>
           <t>243992분의473</t>
         </is>
